--- a/data/trans_dic/P19-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P19-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2347327540310565</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1538069850723876</v>
+        <v>0.1538069850723875</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2681736546371588</v>
@@ -685,7 +685,7 @@
         <v>0.3124670750417914</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2234531928166117</v>
+        <v>0.2234531928166116</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2378611582744394</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1604768063655256</v>
+        <v>0.1602929728738866</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1833317759140133</v>
+        <v>0.184770591480816</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2112310468194014</v>
+        <v>0.2098453219935263</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1188927326792396</v>
+        <v>0.1218488950176096</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2408098447753484</v>
+        <v>0.2406058543841539</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2275543939169846</v>
+        <v>0.2287672713988504</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2852107321328425</v>
+        <v>0.2887644590958093</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1955882973787201</v>
+        <v>0.1905764577255902</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2168243641525582</v>
+        <v>0.2155994890256321</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2111844279443749</v>
+        <v>0.2143086340645708</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2567468470897651</v>
+        <v>0.2578232205474311</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1701542765037249</v>
+        <v>0.1667963976651124</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2254738622579898</v>
+        <v>0.2252796004584257</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2341060125619379</v>
+        <v>0.2335186401367366</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2603096652468159</v>
+        <v>0.2622207491787478</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1927640750698721</v>
+        <v>0.1934939672787655</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3001785140114859</v>
+        <v>0.3002839017725346</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2826145977506253</v>
+        <v>0.2818981370889912</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3405015760251593</v>
+        <v>0.338560170153796</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2545501712807227</v>
+        <v>0.2519395288390147</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2598621495430558</v>
+        <v>0.2601566684601529</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2496980314804335</v>
+        <v>0.251133121133669</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.294576290279327</v>
+        <v>0.2943406929513083</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2167864078373691</v>
+        <v>0.2165737672878243</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1992943386216078</v>
+        <v>0.2002909974946108</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1919168556863297</v>
+        <v>0.1902119361244127</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2739656652782756</v>
+        <v>0.2760804885594971</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1656593650662496</v>
+        <v>0.1635087878214251</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2637217535899246</v>
+        <v>0.2633272629863574</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2785185259709111</v>
+        <v>0.2763936807544259</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3227703680169995</v>
+        <v>0.3212879154255819</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2369806824315645</v>
+        <v>0.2374881172375056</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2368588028978779</v>
+        <v>0.2392448034596041</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2432443864077015</v>
+        <v>0.2445562114043154</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3097660628649634</v>
+        <v>0.3093221917120327</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2098952120317164</v>
+        <v>0.2107575304797475</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2524324648238281</v>
+        <v>0.249732124354138</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2466711583085694</v>
+        <v>0.2443273306792305</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3389008512378258</v>
+        <v>0.3400772310305672</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2232549151783358</v>
+        <v>0.2206986545631877</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.320310637569732</v>
+        <v>0.3194896800788009</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3366113655577439</v>
+        <v>0.3359506775891095</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.380857663506522</v>
+        <v>0.381616056737067</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2826451292397958</v>
+        <v>0.2827960387264429</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2770687156352757</v>
+        <v>0.2773370877790964</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2817792995053909</v>
+        <v>0.2849729244065438</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3539751165348501</v>
+        <v>0.3514783094036553</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.247741255737926</v>
+        <v>0.2473248303075918</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.3276156433848652</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3028498910869985</v>
+        <v>0.3028498910869984</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3503160660765366</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2518278506350512</v>
+        <v>0.2527208136942778</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2478672111128188</v>
+        <v>0.2481191337328367</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2968647988286707</v>
+        <v>0.2947388701903007</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2728726826980301</v>
+        <v>0.2709063694173557</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3209970755992045</v>
+        <v>0.3204965626811137</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3142307193407146</v>
+        <v>0.3135356718486665</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.325796092017315</v>
+        <v>0.3260061757088191</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3283109254549433</v>
+        <v>0.3282060673940835</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2933157838101426</v>
+        <v>0.2939899814351587</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2907080503823293</v>
+        <v>0.2928725118197259</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3181773177970115</v>
+        <v>0.3189704421956893</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.306367519963598</v>
+        <v>0.308580663221303</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.306126707068493</v>
+        <v>0.3108479822351437</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3101821154633507</v>
+        <v>0.31040051799886</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3622136415123655</v>
+        <v>0.3616985738708684</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3372863996815715</v>
+        <v>0.3379732682335216</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3795460351588562</v>
+        <v>0.3831989207352449</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.380165708374904</v>
+        <v>0.3802733545203181</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3957408293457414</v>
+        <v>0.3934929098440219</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3796315212343607</v>
+        <v>0.381204306132972</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3358084716168463</v>
+        <v>0.3337259172540092</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.337142478213635</v>
+        <v>0.3375752341283947</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3671834941711276</v>
+        <v>0.3663455956875764</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3468561882044645</v>
+        <v>0.3491676649987188</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.358260621726707</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.36510275507435</v>
+        <v>0.3651027550743499</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.259295622696384</v>
+        <v>0.2609313221109658</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2842262969949715</v>
+        <v>0.2832344959420001</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2779680186546419</v>
+        <v>0.277252683204002</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3108570697626283</v>
+        <v>0.3122771351708536</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3581734421982797</v>
+        <v>0.3560741920966335</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.288223260664655</v>
+        <v>0.2872559987686434</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3546113527946801</v>
+        <v>0.3527011295953802</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3552942654582555</v>
+        <v>0.3578907927552943</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3169538236581249</v>
+        <v>0.3159950837167163</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2992869728836223</v>
+        <v>0.2948894282392882</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3290737363498235</v>
+        <v>0.3286243336133893</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3447259135837302</v>
+        <v>0.3431325174869598</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3473132033281289</v>
+        <v>0.3465281943659754</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3726063226892376</v>
+        <v>0.3724218420471677</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.367474204006749</v>
+        <v>0.3602681712432537</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3760121446343541</v>
+        <v>0.3800525509793328</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.465956245088359</v>
+        <v>0.4588866317959057</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3760745533684483</v>
+        <v>0.383523182769321</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4437087148099874</v>
+        <v>0.4450168996717224</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4147930294904446</v>
+        <v>0.4136938176937823</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3853887700754579</v>
+        <v>0.382072126252378</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3646715798356713</v>
+        <v>0.362224133820041</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3905494270422245</v>
+        <v>0.3921778586229646</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3898463655487871</v>
+        <v>0.3874023828132782</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.234013716187687</v>
+        <v>0.2336600691715654</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2324600789385864</v>
+        <v>0.2326356378532513</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2750600467052824</v>
+        <v>0.2751698212419627</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2478656672136507</v>
+        <v>0.2472745575765592</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2978533978697743</v>
+        <v>0.2979675953606339</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2874023576169537</v>
+        <v>0.2863780254117542</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.328519013719567</v>
+        <v>0.3293265661129733</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2969344184993937</v>
+        <v>0.2981921187090427</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2698665294557756</v>
+        <v>0.2703342912580438</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2656259179120076</v>
+        <v>0.2648545322871572</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3060887175761005</v>
+        <v>0.3074304473257255</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2769732131851882</v>
+        <v>0.2773659629947375</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2648477084303392</v>
+        <v>0.263758847096128</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.263677103476941</v>
+        <v>0.2622016280873051</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3060544588654059</v>
+        <v>0.3067891083331356</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2788828361489853</v>
+        <v>0.2813719941584378</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3310681522028313</v>
+        <v>0.3310813933764198</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3205450135586665</v>
+        <v>0.319371920976015</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3606101049136508</v>
+        <v>0.3611679371875892</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.324112977425043</v>
+        <v>0.3262647218002901</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2927845331551588</v>
+        <v>0.2928269605756624</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2870360059725605</v>
+        <v>0.2869385185751793</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3305663051836807</v>
+        <v>0.3316538931642329</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2981532750784628</v>
+        <v>0.2988919739426349</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>93741</v>
+        <v>93634</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>191136</v>
+        <v>192636</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>238268</v>
+        <v>236705</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>58393</v>
+        <v>59845</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>221884</v>
+        <v>221696</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>254845</v>
+        <v>256203</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>359240</v>
+        <v>363716</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>119945</v>
+        <v>116872</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>326440</v>
+        <v>324596</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>456686</v>
+        <v>463442</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>612998</v>
+        <v>615568</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>187918</v>
+        <v>184209</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>131709</v>
+        <v>131595</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>244072</v>
+        <v>243460</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>293629</v>
+        <v>295784</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>94675</v>
+        <v>95033</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>276587</v>
+        <v>276684</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>316508</v>
+        <v>315706</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>428883</v>
+        <v>426437</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>156104</v>
+        <v>154503</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>391235</v>
+        <v>391679</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>539972</v>
+        <v>543075</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>703318</v>
+        <v>702755</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>239418</v>
+        <v>239183</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>214818</v>
+        <v>215892</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>187296</v>
+        <v>185632</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>248987</v>
+        <v>250909</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>158363</v>
+        <v>156307</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>278896</v>
+        <v>278479</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>304504</v>
+        <v>302181</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>324860</v>
+        <v>323368</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>262334</v>
+        <v>262896</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>505796</v>
+        <v>510891</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>503326</v>
+        <v>506041</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>593295</v>
+        <v>592445</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>433001</v>
+        <v>434780</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>272095</v>
+        <v>269185</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>240732</v>
+        <v>238445</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>308002</v>
+        <v>309071</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>213421</v>
+        <v>210978</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>338741</v>
+        <v>337872</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>368017</v>
+        <v>367294</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>383324</v>
+        <v>384087</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>312884</v>
+        <v>313051</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>591661</v>
+        <v>592234</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>583064</v>
+        <v>589672</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>677969</v>
+        <v>673186</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>511075</v>
+        <v>510216</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>282219</v>
+        <v>283220</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>219391</v>
+        <v>219614</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>244545</v>
+        <v>242794</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>283743</v>
+        <v>281698</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>319052</v>
+        <v>318554</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>275202</v>
+        <v>274593</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>251208</v>
+        <v>251370</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>342202</v>
+        <v>342093</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>620252</v>
+        <v>621678</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>511911</v>
+        <v>515722</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>507435</v>
+        <v>508700</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>637902</v>
+        <v>642510</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>343071</v>
+        <v>348362</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>274547</v>
+        <v>274740</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>298377</v>
+        <v>297952</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>350722</v>
+        <v>351436</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>377246</v>
+        <v>380877</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>332948</v>
+        <v>333042</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>305140</v>
+        <v>303406</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>395694</v>
+        <v>397334</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>710108</v>
+        <v>705704</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>593678</v>
+        <v>594440</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>585591</v>
+        <v>584255</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>722206</v>
+        <v>727018</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>115957</v>
+        <v>116688</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>142972</v>
+        <v>142473</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>140847</v>
+        <v>140484</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>302032</v>
+        <v>303411</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>122194</v>
+        <v>121478</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>130489</v>
+        <v>130051</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>173652</v>
+        <v>172717</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>320397</v>
+        <v>322738</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>249873</v>
+        <v>249117</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>286046</v>
+        <v>281843</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>327888</v>
+        <v>327441</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>645805</v>
+        <v>642820</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>155318</v>
+        <v>154967</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>187430</v>
+        <v>187337</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>186200</v>
+        <v>182548</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>365337</v>
+        <v>369262</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>158965</v>
+        <v>156553</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>170262</v>
+        <v>173635</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>217283</v>
+        <v>217924</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>374052</v>
+        <v>373060</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>303824</v>
+        <v>301210</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>348538</v>
+        <v>346199</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>389143</v>
+        <v>390765</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>730334</v>
+        <v>725755</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>755845</v>
+        <v>754703</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>791906</v>
+        <v>792504</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>926205</v>
+        <v>926574</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>857254</v>
+        <v>855209</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>987099</v>
+        <v>987478</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1017910</v>
+        <v>1014282</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1158618</v>
+        <v>1161466</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1088065</v>
+        <v>1092674</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1765996</v>
+        <v>1769057</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1845672</v>
+        <v>1840313</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2110199</v>
+        <v>2119449</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1972844</v>
+        <v>1975642</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>855436</v>
+        <v>851919</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>898251</v>
+        <v>893224</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1030572</v>
+        <v>1033045</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>964528</v>
+        <v>973137</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1097174</v>
+        <v>1097218</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1135293</v>
+        <v>1131138</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1271797</v>
+        <v>1273764</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1187656</v>
+        <v>1195541</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1915971</v>
+        <v>1916248</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1994438</v>
+        <v>1993761</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2278949</v>
+        <v>2286447</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2123707</v>
+        <v>2128969</v>
       </c>
     </row>
     <row r="24">
